--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/CollRemind.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/CollRemind.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33CCCCB-2831-425F-A42F-79628516F68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1283E394-77C7-45E1-BF5F-5605D2BE716D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,11 +262,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0.已到期 1.有效 4.已刪除 6.已解除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>詢問過user意見，時間存入4碼即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:已到期
+1:有效
+4:已刪除
+6:已解除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -550,6 +553,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -893,7 +899,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1119,7 +1125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="64.8">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1135,8 +1141,8 @@
       <c r="E15" s="23">
         <v>1</v>
       </c>
-      <c r="G15" s="27" t="s">
-        <v>64</v>
+      <c r="G15" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1190,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7">
